--- a/excel lab questions/Set0.xlsx
+++ b/excel lab questions/Set0.xlsx
@@ -45,10 +45,10 @@
     <t>Question 1: Level Regular and Retake students according to id. IF a student has ID greater than 183311000 then he is regular otherwise he is Retake.</t>
   </si>
   <si>
-    <t>Qustion 2: Create a dropdown with two options for the verdict field leveled Improved/Unimproved.</t>
+    <t>Qustion 2: Create a dropdown with three options for the verdict field leveled Improved/Unimproved/Same.</t>
   </si>
   <si>
-    <t>Question 3: Filter all retake unimproved students list.</t>
+    <t>Question 3: Filter all regular improved students list.</t>
   </si>
 </sst>
 </file>
@@ -135,16 +135,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="J18" sqref="J18:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +466,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -492,7 +492,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <f>SUM(B2:E2)</f>
         <v>28</v>
       </c>
@@ -515,7 +515,7 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F37" si="0">SUM(B3:E3)</f>
         <v>28</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -561,7 +561,7 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -699,22 +699,22 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="3">
@@ -732,20 +732,20 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="3">
@@ -763,20 +763,20 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="3">
@@ -794,20 +794,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="3">
@@ -825,22 +825,22 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="3">
@@ -858,20 +858,20 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="3">
@@ -889,20 +889,20 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="3">
@@ -916,22 +916,22 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="3">
@@ -947,20 +947,20 @@
         <v>9</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="3">
@@ -976,7 +976,7 @@
         <v>4.5</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="E26" s="3">
         <v>2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
